--- a/biology/Microbiologie/Bouillon_M17/Bouillon_M17.xlsx
+++ b/biology/Microbiologie/Bouillon_M17/Bouillon_M17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bouillon M17 est un milieu de culture liquide utilisé in vitro dans le dénombrement et la culture des streptocoques lactiques mésophiles, de Streptococcus thermophilus dans le yaourt et autres produits laitiers, ainsi que dans la conservation des cultures de départ[1]
-Il est également bien adapté aux lactocoques, dont Lactococcus lactis[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bouillon M17 est un milieu de culture liquide utilisé in vitro dans le dénombrement et la culture des streptocoques lactiques mésophiles, de Streptococcus thermophilus dans le yaourt et autres produits laitiers, ainsi que dans la conservation des cultures de départ
+Il est également bien adapté aux lactocoques, dont Lactococcus lactis.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Formule-type, qui peut être ajustée, pour un litre de milieu[2] :
-Tryptone[3] 2,5 g
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Formule-type, qui peut être ajustée, pour un litre de milieu :
+Tryptone 2,5 g
 Peptone pepsique de viande 2,5 g
 Peptone papaïnique de soja 5,0 g
 Extrait de viande 5,0 g
@@ -552,9 +566,11 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avec un milieu déshydraté : dissoudre lentement, en agitant, 42,2 g dans 1 litre d’eau distillée ou déminéralisée. Distribuer dans des tubes ou flacons, et autoclaver à 115 °C pendant 20 minutes[2]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec un milieu déshydraté : dissoudre lentement, en agitant, 42,2 g dans 1 litre d’eau distillée ou déminéralisée. Distribuer dans des tubes ou flacons, et autoclaver à 115 °C pendant 20 minutes. 
 </t>
         </is>
       </c>
